--- a/output/all-profiles.xlsx
+++ b/output/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:49:36+10:00</t>
+    <t>2025-06-26T16:23:30+10:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1206,17 +1206,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.33984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="12.3828125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.3125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.04296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="11.10546875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.43359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1225,21 +1225,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="64.3125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="44.3984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.5" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="57.67578125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="39.81640625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.44140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="15.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.51953125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
